--- a/reconstruction-tools-assessment/supplementary material/S22_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S22_table.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7CDAC0-1826-4ED9-A606-195AF5024642}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4476" yWindow="1320" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S22 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Metabolic process</t>
   </si>
@@ -47,26 +53,14 @@
     <t>Metabolism of terpenoids and polyketides</t>
   </si>
   <si>
-    <t>Xenobiotics biodegradation and metabolism</t>
-  </si>
-  <si>
     <t>ABC transporters</t>
   </si>
   <si>
     <t>Phosphotransferase system (PTS)</t>
   </si>
   <si>
-    <t>Nucleotide metabolism</t>
-  </si>
-  <si>
-    <t>Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Metabolism of other amino acids</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">S22 Table. Metabolic processes associated to the 13 metabolites which were recovered in all the draft networks of </t>
+      <t xml:space="preserve">S22 Table. Metabolic processes associated to the 11 metabolites which were recovered in all the draft networks of </t>
     </r>
     <r>
       <rPr>
@@ -94,7 +88,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -508,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -528,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>33.333333333333336</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -541,8 +539,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>13.333333333333334</v>
+      <c r="C5" s="5">
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -552,8 +550,8 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>13.333333333333334</v>
+      <c r="C6" s="5">
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -563,8 +561,8 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
-        <v>10</v>
+      <c r="C7" s="5">
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -572,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -583,55 +581,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6.666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
